--- a/PEMWEB/Komting/absensi.xlsx
+++ b/PEMWEB/Komting/absensi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Absensi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Komting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A06D3D7-EABE-44C7-934B-C70BF56ADAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C01F0C-4AA0-4BA8-AF34-CAA302E33980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,7 +598,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -625,7 +625,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -652,7 +652,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -679,7 +679,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -706,7 +706,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="7"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -733,7 +733,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -760,7 +760,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -787,7 +787,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -814,7 +814,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -841,7 +841,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -868,7 +868,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -895,7 +895,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -922,7 +922,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -949,7 +949,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -976,7 +976,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1003,7 +1003,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1030,7 +1030,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1057,7 +1057,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1084,7 +1084,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1111,7 +1111,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1138,7 +1138,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1165,7 +1165,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1192,7 +1192,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1219,7 +1219,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1246,7 +1246,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="2"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1273,7 +1273,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1300,7 +1300,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1327,7 +1327,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1354,7 +1354,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>

--- a/PEMWEB/Komting/absensi.xlsx
+++ b/PEMWEB/Komting/absensi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Komting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C01F0C-4AA0-4BA8-AF34-CAA302E33980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F8DBE8-8632-4FA2-9ACE-B3F369C55B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,7 +599,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -626,7 +626,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -653,7 +653,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -680,7 +680,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -707,7 +707,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -734,7 +734,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -761,7 +761,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -788,7 +788,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -815,7 +815,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -842,7 +842,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -869,7 +869,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -896,7 +896,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -923,7 +923,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -950,7 +950,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -977,7 +977,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1004,7 +1004,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1031,7 +1031,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1058,7 +1058,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1085,7 +1085,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1112,7 +1112,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1139,7 +1139,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1166,7 +1166,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1193,7 +1193,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1220,7 +1220,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1247,7 +1247,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1274,7 +1274,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="5"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1301,7 +1301,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1328,7 +1328,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1355,7 +1355,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="2"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>

--- a/PEMWEB/Komting/absensi.xlsx
+++ b/PEMWEB/Komting/absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Komting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F8DBE8-8632-4FA2-9ACE-B3F369C55B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34728673-C497-4426-8320-83B6B32CC136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,7 +600,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -627,7 +627,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -654,7 +654,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -681,7 +681,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -708,7 +708,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -735,7 +735,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -762,7 +762,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -789,7 +789,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -816,7 +816,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -843,7 +843,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -870,7 +870,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -897,7 +897,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -924,7 +924,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -951,7 +951,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -978,7 +978,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1005,7 +1005,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1032,7 +1032,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1059,7 +1059,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1086,7 +1086,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1113,7 +1113,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1140,7 +1140,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -1167,7 +1167,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="7"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1194,7 +1194,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1221,7 +1221,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1248,7 +1248,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1275,7 +1275,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1302,7 +1302,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1329,7 +1329,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -1356,7 +1356,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>

--- a/PEMWEB/Komting/absensi.xlsx
+++ b/PEMWEB/Komting/absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Komting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34728673-C497-4426-8320-83B6B32CC136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F77D8-40DB-40C6-BFD2-94B66E59A3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>NO</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>PERTEMUAN</t>
+  </si>
+  <si>
+    <t>UTS</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,6 +203,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T32"/>
+  <dimension ref="B2:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,42 +507,44 @@
     <col min="2" max="2" width="3.54296875" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="37.7265625" customWidth="1"/>
-    <col min="5" max="20" width="4.6328125" customWidth="1"/>
+    <col min="5" max="22" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -558,32 +569,38 @@
       <c r="L3" s="1">
         <v>8</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1">
         <v>9</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>10</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>11</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>12</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="1">
         <v>13</v>
       </c>
-      <c r="R3" s="1">
+      <c r="T3" s="1">
         <v>14</v>
       </c>
-      <c r="S3" s="1">
+      <c r="U3" s="1">
         <v>15</v>
       </c>
-      <c r="T3" s="1">
+      <c r="V3" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -601,16 +618,18 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -628,16 +647,18 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -655,16 +676,18 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -682,16 +705,18 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -709,16 +734,18 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -736,16 +763,18 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -763,16 +792,18 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -790,16 +821,18 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -817,16 +850,18 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -844,16 +879,18 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -871,16 +908,18 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -898,16 +937,18 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -925,16 +966,18 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -952,16 +995,18 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -979,16 +1024,18 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -1006,16 +1053,18 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -1033,16 +1082,18 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -1060,16 +1111,18 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -1087,16 +1140,18 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -1114,16 +1169,18 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -1141,16 +1198,18 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -1168,16 +1227,18 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -1195,16 +1256,18 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -1222,16 +1285,18 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -1249,16 +1314,18 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -1276,16 +1343,18 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -1303,16 +1372,18 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -1330,16 +1401,18 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -1357,21 +1430,23 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D32">
     <sortCondition ref="D4:D32"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="E2:T2"/>
+    <mergeCell ref="E2:V2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -1399,38 +1474,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="6">
         <v>1</v>
       </c>

--- a/PEMWEB/Komting/absensi.xlsx
+++ b/PEMWEB/Komting/absensi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Komting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F77D8-40DB-40C6-BFD2-94B66E59A3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE46119-A25E-4BCB-9765-937B2BDB9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:V32"/>
+  <dimension ref="B2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,10 +507,10 @@
     <col min="2" max="2" width="3.54296875" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="37.7265625" customWidth="1"/>
-    <col min="5" max="22" width="4.6328125" customWidth="1"/>
+    <col min="5" max="21" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -539,9 +539,8 @@
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -576,31 +575,28 @@
         <v>33</v>
       </c>
       <c r="O3" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P3" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R3" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U3" s="1">
-        <v>15</v>
-      </c>
-      <c r="V3" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -620,16 +616,15 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -649,16 +644,15 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -678,16 +672,15 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -707,16 +700,15 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -736,16 +728,15 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -765,16 +756,15 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -794,16 +784,15 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -823,16 +812,15 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="2"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -852,16 +840,15 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -881,16 +868,15 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -910,16 +896,15 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -939,16 +924,15 @@
       <c r="L15" s="7"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -968,16 +952,15 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -997,16 +980,15 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="5"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -1026,16 +1008,15 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -1055,16 +1036,15 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -1084,16 +1064,15 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="2"/>
+      <c r="O20" s="7"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -1113,16 +1092,15 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -1142,16 +1120,15 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="2"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -1171,16 +1148,15 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="5"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -1200,16 +1176,15 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -1229,16 +1204,15 @@
       <c r="L25" s="7"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -1258,16 +1232,15 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -1287,16 +1260,15 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="5"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -1316,16 +1288,15 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="2"/>
+      <c r="O28" s="5"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -1345,16 +1316,15 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="2"/>
+      <c r="O29" s="5"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -1374,16 +1344,15 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="2"/>
+      <c r="O30" s="5"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -1403,16 +1372,15 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="2"/>
+      <c r="O31" s="5"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -1432,21 +1400,20 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="2"/>
+      <c r="O32" s="5"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D32">
     <sortCondition ref="D4:D32"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="E2:V2"/>
+    <mergeCell ref="E2:U2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>

--- a/PEMWEB/Komting/absensi.xlsx
+++ b/PEMWEB/Komting/absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Komting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE46119-A25E-4BCB-9765-937B2BDB9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D928F77-A33B-44A4-8034-1264BE4B0FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,7 +617,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="2"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -645,7 +645,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -673,7 +673,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="2"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -701,7 +701,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="2"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -729,7 +729,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -757,7 +757,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -785,7 +785,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -813,7 +813,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -841,7 +841,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -869,7 +869,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -897,7 +897,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="2"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -925,7 +925,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -953,7 +953,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -981,7 +981,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="2"/>
+      <c r="P17" s="5"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1009,7 +1009,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="2"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1037,7 +1037,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="2"/>
+      <c r="P19" s="5"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1065,7 +1065,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="5"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1093,7 +1093,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="2"/>
+      <c r="P21" s="5"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1121,7 +1121,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="7"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1149,7 +1149,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="5"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1177,7 +1177,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1205,7 +1205,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="2"/>
+      <c r="P25" s="5"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1233,7 +1233,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="5"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1261,7 +1261,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="5"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -1289,7 +1289,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="2"/>
+      <c r="P28" s="5"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -1317,7 +1317,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="2"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -1345,7 +1345,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="2"/>
+      <c r="P30" s="5"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -1373,7 +1373,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="2"/>
+      <c r="P31" s="5"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -1401,7 +1401,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="2"/>
+      <c r="P32" s="5"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>

--- a/PEMWEB/Komting/absensi.xlsx
+++ b/PEMWEB/Komting/absensi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Komting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D928F77-A33B-44A4-8034-1264BE4B0FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313B4AE1-259F-4F51-B597-C660DC18FB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,10 +134,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,6 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,8 +626,8 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -646,8 +654,8 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -674,8 +682,8 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -702,8 +710,8 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -730,8 +738,8 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -758,8 +766,8 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -786,8 +794,8 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -814,8 +822,8 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -842,8 +850,8 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -870,8 +878,8 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -898,8 +906,8 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -926,8 +934,8 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -954,8 +962,8 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -982,8 +990,8 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1010,8 +1018,8 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1038,8 +1046,8 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1066,8 +1074,8 @@
       <c r="N20" s="5"/>
       <c r="O20" s="7"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1094,8 +1102,8 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1122,8 +1130,8 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1150,8 +1158,8 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -1178,8 +1186,8 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -1206,8 +1214,8 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -1234,8 +1242,8 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -1262,8 +1270,8 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -1290,8 +1298,8 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -1318,8 +1326,8 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -1346,8 +1354,8 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -1374,8 +1382,8 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -1402,8 +1410,8 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>

--- a/PEMWEB/Komting/absensi.xlsx
+++ b/PEMWEB/Komting/absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Komting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313B4AE1-259F-4F51-B597-C660DC18FB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4AD4FA-9F29-435C-B376-5DD613897550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,13 +216,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,39 +519,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
@@ -656,7 +656,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="2"/>
+      <c r="S5" s="5"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
@@ -684,7 +684,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="2"/>
+      <c r="S6" s="5"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
@@ -712,7 +712,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
@@ -740,7 +740,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="2"/>
+      <c r="S8" s="7"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
@@ -768,7 +768,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="2"/>
+      <c r="S9" s="5"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
@@ -796,7 +796,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="2"/>
+      <c r="S10" s="5"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
@@ -824,7 +824,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="2"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
@@ -852,7 +852,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="5"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
@@ -880,7 +880,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="2"/>
+      <c r="S13" s="5"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
@@ -908,7 +908,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="2"/>
+      <c r="S14" s="5"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
@@ -935,8 +935,8 @@
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="2"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="5"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
@@ -964,7 +964,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="2"/>
+      <c r="S16" s="5"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
@@ -992,7 +992,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="2"/>
+      <c r="S17" s="5"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
@@ -1020,7 +1020,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="2"/>
+      <c r="S18" s="5"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
@@ -1048,7 +1048,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="2"/>
+      <c r="S19" s="5"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
@@ -1076,7 +1076,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="2"/>
+      <c r="S20" s="5"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
@@ -1104,7 +1104,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="2"/>
+      <c r="S21" s="5"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
@@ -1132,7 +1132,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="2"/>
+      <c r="S22" s="5"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
@@ -1160,7 +1160,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="2"/>
+      <c r="S23" s="5"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="2"/>
+      <c r="S24" s="5"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
@@ -1216,7 +1216,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="2"/>
+      <c r="S25" s="5"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
@@ -1244,7 +1244,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="2"/>
+      <c r="S26" s="5"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
@@ -1272,7 +1272,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="2"/>
+      <c r="S27" s="5"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
@@ -1300,7 +1300,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="2"/>
+      <c r="S28" s="5"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
@@ -1328,7 +1328,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-      <c r="S29" s="2"/>
+      <c r="S29" s="5"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="2"/>
+      <c r="S30" s="5"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
@@ -1384,7 +1384,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-      <c r="S31" s="2"/>
+      <c r="S31" s="5"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
@@ -1412,7 +1412,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-      <c r="S32" s="2"/>
+      <c r="S32" s="5"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
@@ -1449,38 +1449,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="6">
         <v>1</v>
       </c>

--- a/PEMWEB/Komting/absensi.xlsx
+++ b/PEMWEB/Komting/absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Komting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4AD4FA-9F29-435C-B376-5DD613897550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FE8E0D-7E24-4AAF-B4F4-D367C75DAD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PEMWEB/Komting/absensi.xlsx
+++ b/PEMWEB/Komting/absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Komting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FE8E0D-7E24-4AAF-B4F4-D367C75DAD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9368ED-CB9A-4060-97BC-AA5262E3FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,8 +629,8 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
@@ -657,8 +657,8 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="5"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
@@ -685,8 +685,8 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
@@ -713,8 +713,8 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -741,8 +741,8 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
@@ -769,8 +769,8 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
@@ -797,8 +797,8 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
@@ -825,8 +825,8 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
@@ -853,8 +853,8 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
@@ -881,8 +881,8 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
@@ -909,8 +909,8 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
@@ -937,8 +937,8 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="10"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
@@ -965,8 +965,8 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
@@ -993,8 +993,8 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="5"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
@@ -1021,8 +1021,8 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="5"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
@@ -1049,8 +1049,8 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
@@ -1077,8 +1077,8 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="7"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
@@ -1105,8 +1105,8 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="7"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
@@ -1133,8 +1133,8 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
@@ -1161,8 +1161,8 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
@@ -1189,8 +1189,8 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
@@ -1217,8 +1217,8 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
@@ -1245,8 +1245,8 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
@@ -1273,8 +1273,8 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
@@ -1301,8 +1301,8 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
@@ -1329,8 +1329,8 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
@@ -1357,8 +1357,8 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
@@ -1385,8 +1385,8 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
@@ -1413,8 +1413,8 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D32">
